--- a/iselUssSyncV2/OutputWSL/20220426_1334_D50L474W90Q20U0.32H80G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1334_D50L474W90Q20U0.32H80G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>80.394347826086971</v>
+        <v>80.395278593107946</v>
       </c>
       <c r="F2" s="0">
-        <v>80.329841897233223</v>
+        <v>80.33077266425417</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>81.031633466135446</v>
+        <v>81.033908674408963</v>
       </c>
       <c r="F3" s="0">
-        <v>82.128087649402417</v>
+        <v>82.130362857675848</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>80.040992063492041</v>
+        <v>80.043742997131815</v>
       </c>
       <c r="F4" s="0">
-        <v>83.769365079365059</v>
+        <v>83.772116013004847</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>79.358888888888899</v>
+        <v>79.361694979092889</v>
       </c>
       <c r="F5" s="0">
-        <v>84.297698412698395</v>
+        <v>84.300504502902399</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>78.250912698412719</v>
+        <v>78.253767050610335</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,7 +220,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>75.474246031745977</v>
+        <v>75.477141751366801</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -238,10 +238,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>71.070198412698417</v>
+        <v>71.073128605171846</v>
       </c>
       <c r="F8" s="0">
-        <v>81.403293650793685</v>
+        <v>81.406223843267043</v>
       </c>
     </row>
     <row r="9">
@@ -258,7 +258,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>68.525317460317481</v>
+        <v>68.528259511452191</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -276,7 +276,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>65.193545816733064</v>
+        <v>65.196498623397815</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -294,7 +294,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>62.188531746031749</v>
+        <v>62.191494205095253</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -312,10 +312,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>60.58888888888891</v>
+        <v>60.591855760477507</v>
       </c>
       <c r="F12" s="0">
-        <v>16.34059523809524</v>
+        <v>16.343562109683859</v>
       </c>
     </row>
     <row r="13">
@@ -332,10 +332,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>58.635714285714272</v>
+        <v>58.638685294045231</v>
       </c>
       <c r="F13" s="0">
-        <v>16.536507936507935</v>
+        <v>16.539478944838876</v>
       </c>
     </row>
     <row r="14">
@@ -352,10 +352,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>56.910996015936263</v>
+        <v>56.913970885226696</v>
       </c>
       <c r="F14" s="0">
-        <v>17.381713147410363</v>
+        <v>17.384688016700789</v>
       </c>
     </row>
     <row r="15">
@@ -372,10 +372,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>54.789999999999985</v>
+        <v>54.792978454467104</v>
       </c>
       <c r="F15" s="0">
-        <v>17.304722222222225</v>
+        <v>17.307700676689329</v>
       </c>
     </row>
     <row r="16">
@@ -392,10 +392,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>51.773027888446208</v>
+        <v>51.776012685918197</v>
       </c>
       <c r="F16" s="0">
-        <v>17.204581673306773</v>
+        <v>17.207566470778765</v>
       </c>
     </row>
     <row r="17">
@@ -412,10 +412,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>48.598015873015861</v>
+        <v>48.601005910361458</v>
       </c>
       <c r="F17" s="0">
-        <v>17.756468253968251</v>
+        <v>17.759458291313848</v>
       </c>
     </row>
     <row r="18">
@@ -432,10 +432,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>45.578884462151393</v>
+        <v>45.581878636239296</v>
       </c>
       <c r="F18" s="0">
-        <v>25.797649402390434</v>
+        <v>25.80064357647834</v>
       </c>
     </row>
     <row r="19">
@@ -452,10 +452,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>40.453412698412706</v>
+        <v>40.456411836591386</v>
       </c>
       <c r="F19" s="0">
-        <v>40.458134920634919</v>
+        <v>40.461134058813613</v>
       </c>
     </row>
     <row r="20">
@@ -472,10 +472,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>35.295079365079374</v>
+        <v>35.298078503258054</v>
       </c>
       <c r="F20" s="0">
-        <v>47.069206349206354</v>
+        <v>47.072205487385034</v>
       </c>
     </row>
     <row r="21">
@@ -492,10 +492,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>31.378412698412685</v>
+        <v>31.381404942020861</v>
       </c>
       <c r="F21" s="0">
-        <v>48.100753968253983</v>
+        <v>48.103746211862124</v>
       </c>
     </row>
     <row r="22">
@@ -512,10 +512,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>28.402509960159357</v>
+        <v>28.405488414626475</v>
       </c>
       <c r="F22" s="0">
-        <v>46.878167330677286</v>
+        <v>46.881145785144398</v>
       </c>
     </row>
     <row r="23">
@@ -532,10 +532,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>26.957649402390434</v>
+        <v>26.960607173145963</v>
       </c>
       <c r="F23" s="0">
-        <v>46.736374501992032</v>
+        <v>46.739332272747561</v>
       </c>
     </row>
     <row r="24">
@@ -552,10 +552,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>32.545753968253969</v>
+        <v>32.548649687874772</v>
       </c>
       <c r="F24" s="0">
-        <v>46.158253968253959</v>
+        <v>46.161149687874769</v>
       </c>
     </row>
     <row r="25">
@@ -572,10 +572,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>59.643730158730158</v>
+        <v>59.646536248934119</v>
       </c>
       <c r="F25" s="0">
-        <v>47.032579365079371</v>
+        <v>47.03538545528334</v>
       </c>
     </row>
     <row r="26">
@@ -592,10 +592,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>39.144880952380959</v>
+        <v>39.147569834885985</v>
       </c>
       <c r="F26" s="0">
-        <v>47.475793650793648</v>
+        <v>47.478482533298674</v>
       </c>
     </row>
     <row r="27">
@@ -612,10 +612,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>58.21218253968253</v>
+        <v>58.214726636206557</v>
       </c>
       <c r="F27" s="0">
-        <v>47.649325396825397</v>
+        <v>47.651869493349395</v>
       </c>
     </row>
     <row r="28">
@@ -632,10 +632,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>46.899800796812748</v>
+        <v>46.902172529073596</v>
       </c>
       <c r="F28" s="0">
-        <v>47.468366533864533</v>
+        <v>47.470738266125394</v>
       </c>
     </row>
     <row r="29">
@@ -652,10 +652,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>44.147968127490053</v>
+        <v>44.150139917205628</v>
       </c>
       <c r="F29" s="0">
-        <v>47.683306772908367</v>
+        <v>47.685478562623977</v>
       </c>
     </row>
     <row r="30">
@@ -672,10 +672,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>45.303571428571431</v>
+        <v>45.305260598350223</v>
       </c>
       <c r="F30" s="0">
-        <v>46.581349206349216</v>
+        <v>46.583038376128009</v>
       </c>
     </row>
   </sheetData>
